--- a/program_files/stmtdata_cache.xlsx
+++ b/program_files/stmtdata_cache.xlsx
@@ -474,9 +474,7 @@
           <t>货币资金</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>2601719.61</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>5024455.83</v>
       </c>

--- a/program_files/stmtdata_cache.xlsx
+++ b/program_files/stmtdata_cache.xlsx
@@ -474,7 +474,9 @@
           <t>货币资金</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>2601719.61</v>
+      </c>
       <c r="D2" t="n">
         <v>5024455.83</v>
       </c>
@@ -539,16 +541,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -561,16 +563,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
